--- a/team-player.xlsx
+++ b/team-player.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,13 +409,37 @@
       <c r="B1" t="str">
         <v>players</v>
       </c>
+      <c r="C1" t="str">
+        <v>age</v>
+      </c>
+      <c r="D1" t="str">
+        <v>phonenumber</v>
+      </c>
+      <c r="E1" t="str">
+        <v>email</v>
+      </c>
+      <c r="F1" t="str">
+        <v>contact</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>team 01</v>
       </c>
       <c r="B2" t="str">
-        <v>Nguyễn Văn A-0123456789-email0@gmail.com-0-Thủ môn-01/09/2001,Lê Văn B-0123456789-email1@gmail.com-1-Hậu vệ-24/09/2000,Phạm Văn C-0123456789-email2@gmail.com-2-Hậu vệ-07/06/2001,Trần Văn D-0123456789-email3@gmail.com-3-Hậu vệ-24/09/2002,Nguyễn Văn E-0123456789-email4@gmail.com-4-Hậu vệ-13/06/2002,Lê Văn F-0123456789-email5@gmail.com-5-Tiền vệ-23/01/2002,Phạm Văn G-0123456789-email6@gmail.com-6-Tiền vệ-07/03/2000,Trần Văn H-0123456789-email7@gmail.com-7-Tiền vệ-05/05/2003,Nguyễn Văn I-0123456789-email8@gmail.com-8-Tiền vệ-05/03/2001,Lê Văn J-0123456789-email9@gmail.com-9-Tiền đạo-13/05/2002,Phạm Văn K-0123456789-email10@gmail.com-10-Tiền đạo-26/12/2003</v>
+        <v>Nguyễn Văn A-0123456789-email0@gmail.com-0-Thủ môn-03/11/2001,Lê Văn B-0123456789-email1@gmail.com-1-Hậu vệ-02/04/2001,Phạm Văn C-0123456789-email2@gmail.com-2-Hậu vệ-09/06/2003,Trần Văn D-0123456789-email3@gmail.com-3-Hậu vệ-09/11/2001,Nguyễn Văn E-0123456789-email4@gmail.com-4-Hậu vệ-30/08/2002,Lê Văn F-0123456789-email5@gmail.com-5-Tiền vệ-29/11/2003,Phạm Văn G-0123456789-email6@gmail.com-6-Tiền vệ-26/12/2003,Trần Văn H-0123456789-email7@gmail.com-7-Tiền vệ-18/02/2003,Nguyễn Văn I-0123456789-email8@gmail.com-8-Tiền vệ-07/05/1999,Lê Văn J-0123456789-email9@gmail.com-9-Tiền đạo-22/10/2001,Phạm Văn K-0123456789-email10@gmail.com-10-Tiền đạo-04/12/1999</v>
+      </c>
+      <c r="C2" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F2" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +447,19 @@
         <v>team 02</v>
       </c>
       <c r="B3" t="str">
-        <v>Nguyễn Văn L-0123456789-email11@gmail.com-11-Thủ môn-23/12/2002,Lê Văn M-0123456789-email12@gmail.com-12-Hậu vệ-14/12/1999,Phạm Văn N-0123456789-email13@gmail.com-13-Hậu vệ-29/10/2000,Trần Văn O-0123456789-email14@gmail.com-14-Hậu vệ-01/03/2004,Nguyễn Văn P-0123456789-email15@gmail.com-15-Hậu vệ-18/06/2000,Lê Văn Q-0123456789-email16@gmail.com-16-Tiền vệ-06/11/2003,Phạm Văn R-0123456789-email17@gmail.com-17-Tiền vệ-12/05/2001,Trần Văn S-0123456789-email18@gmail.com-18-Tiền vệ-12/04/1999,Nguyễn Văn T-0123456789-email19@gmail.com-19-Tiền vệ-02/07/2002,Lê Văn U-0123456789-email20@gmail.com-20-Tiền đạo-17/06/2000,Nguyễn Văn V-0123456789-email21@gmail.com-21-Tiền đạo-17/01/2004</v>
+        <v>Nguyễn Văn L-0123456789-email11@gmail.com-11-Thủ môn-22/07/2001,Lê Văn M-0123456789-email12@gmail.com-12-Hậu vệ-05/09/2003,Phạm Văn N-0123456789-email13@gmail.com-13-Hậu vệ-25/01/2003,Trần Văn O-0123456789-email14@gmail.com-14-Hậu vệ-11/07/2000,Nguyễn Văn P-0123456789-email15@gmail.com-15-Hậu vệ-24/02/2003,Lê Văn Q-0123456789-email16@gmail.com-16-Tiền vệ-29/03/2002,Phạm Văn R-0123456789-email17@gmail.com-17-Tiền vệ-10/03/2000,Trần Văn S-0123456789-email18@gmail.com-18-Tiền vệ-06/04/2001,Nguyễn Văn T-0123456789-email19@gmail.com-19-Tiền vệ-14/11/2003,Lê Văn U-0123456789-email20@gmail.com-20-Tiền đạo-01/10/2003,Nguyễn Văn V-0123456789-email21@gmail.com-21-Tiền đạo-29/11/1999</v>
+      </c>
+      <c r="C3" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E3" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F3" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="4">
@@ -431,7 +467,19 @@
         <v>team 03</v>
       </c>
       <c r="B4" t="str">
-        <v>Lê Văn W-0123456789-email22@gmail.com-22-Thủ môn-31/01/2003,Phạm Văn X-0123456789-email23@gmail.com-23-Hậu vệ-20/06/2002,Trần Văn Y-0123456789-email24@gmail.com-24-Hậu vệ-13/07/2002,Nguyễn Văn Z-0123456789-email25@gmail.com-25-Hậu vệ-28/05/2002,Đặng Văn L-0123456789-email26@gmail.com-26-Hậu vệ-30/09/2000,Bùi Văn T-0123456789-email27@gmail.com-27-Tiền vệ-04/04/2002,Vũ Văn T-0123456789-email28@gmail.com-28-Tiền vệ-28/11/2001,Nguyễn Văn M-0123456789-email29@gmail.com-29-Tiền vệ-02/10/1999,Lê Văn D-0123456789-email30@gmail.com-30-Tiền vệ-16/07/2002,Phạm Văn T-0123456789-email31@gmail.com-31-Tiền đạo-02/08/1999,Trần Văn H-0123456789-email32@gmail.com-32-Tiền đạo-14/02/2004</v>
+        <v>Lê Văn W-0123456789-email22@gmail.com-22-Thủ môn-09/03/2002,Phạm Văn X-0123456789-email23@gmail.com-23-Hậu vệ-09/10/2003,Trần Văn Y-0123456789-email24@gmail.com-24-Hậu vệ-10/04/2002,Nguyễn Văn Z-0123456789-email25@gmail.com-25-Hậu vệ-17/03/2003,Đặng Văn L-0123456789-email26@gmail.com-26-Hậu vệ-03/01/2003,Bùi Văn T-0123456789-email27@gmail.com-27-Tiền vệ-13/05/1999,Vũ Văn T-0123456789-email28@gmail.com-28-Tiền vệ-28/09/2003,Nguyễn Văn M-0123456789-email29@gmail.com-29-Tiền vệ-23/04/1999,Lê Văn D-0123456789-email30@gmail.com-30-Tiền vệ-19/11/2003,Phạm Văn T-0123456789-email31@gmail.com-31-Tiền đạo-30/07/2000,Trần Văn H-0123456789-email32@gmail.com-32-Tiền đạo-29/03/2004</v>
+      </c>
+      <c r="C4" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E4" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F4" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="5">
@@ -439,7 +487,19 @@
         <v>team 04</v>
       </c>
       <c r="B5" t="str">
-        <v>Nguyễn Văn L-0123456789-email33@gmail.com-33-Thủ môn-11/01/2002,Lê Văn M-0123456789-email34@gmail.com-34-Hậu vệ-13/06/2003,Phạm Văn N-0123456789-email35@gmail.com-35-Hậu vệ-05/03/2004,Trần Văn O-0123456789-email36@gmail.com-36-Hậu vệ-11/12/2001,Nguyễn Văn P-0123456789-email37@gmail.com-37-Hậu vệ-11/11/2003,Lê Văn Q-0123456789-email38@gmail.com-38-Tiền vệ-16/02/2000,Phạm Văn R-0123456789-email39@gmail.com-39-Tiền vệ-02/07/2001,Trần Văn S-0123456789-email40@gmail.com-40-Tiền vệ-04/08/1999,Nguyễn Văn T-0123456789-email41@gmail.com-41-Tiền vệ-17/05/2002,Lê Văn U-0123456789-email42@gmail.com-42-Tiền đạo-03/03/2001,Nguyễn Văn V-0123456789-email43@gmail.com-43-Tiền đạo-24/02/2003</v>
+        <v>Nguyễn Văn L-0123456789-email33@gmail.com-33-Thủ môn-08/11/2001,Lê Văn M-0123456789-email34@gmail.com-34-Hậu vệ-30/03/2002,Phạm Văn N-0123456789-email35@gmail.com-35-Hậu vệ-16/12/2002,Trần Văn O-0123456789-email36@gmail.com-36-Hậu vệ-09/04/2000,Nguyễn Văn P-0123456789-email37@gmail.com-37-Hậu vệ-21/03/2001,Lê Văn Q-0123456789-email38@gmail.com-38-Tiền vệ-21/06/1999,Phạm Văn R-0123456789-email39@gmail.com-39-Tiền vệ-06/05/2002,Trần Văn S-0123456789-email40@gmail.com-40-Tiền vệ-18/07/1999,Nguyễn Văn T-0123456789-email41@gmail.com-41-Tiền vệ-06/03/2000,Lê Văn U-0123456789-email42@gmail.com-42-Tiền đạo-16/06/2000,Nguyễn Văn V-0123456789-email43@gmail.com-43-Tiền đạo-03/06/2001</v>
+      </c>
+      <c r="C5" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E5" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F5" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="6">
@@ -447,7 +507,19 @@
         <v>team 05</v>
       </c>
       <c r="B6" t="str">
-        <v>Lê Văn W-0123456789-email44@gmail.com-44-Thủ môn-14/02/2003,Phạm Văn X-0123456789-email45@gmail.com-45-Hậu vệ-28/11/2001,Trần Văn Y-0123456789-email46@gmail.com-46-Hậu vệ-17/09/2002,Nguyễn Văn Z-0123456789-email47@gmail.com-47-Hậu vệ-04/01/2002,Đặng Văn L-0123456789-email48@gmail.com-48-Hậu vệ-21/02/2004,Bùi Văn T-0123456789-email49@gmail.com-49-Tiền vệ-10/12/2003,Vũ Văn T-0123456789-email50@gmail.com-50-Tiền vệ-09/05/1999,Nguyễn Văn M-0123456789-email51@gmail.com-51-Tiền vệ-07/08/2000,Lê Văn D-0123456789-email52@gmail.com-52-Tiền vệ-18/11/2002,Phạm Văn T-0123456789-email53@gmail.com-53-Tiền đạo-18/06/1999,Trần Văn H-0123456789-email54@gmail.com-54-Tiền đạo-09/11/2001</v>
+        <v>Lê Văn W-0123456789-email44@gmail.com-44-Thủ môn-11/12/2000,Phạm Văn X-0123456789-email45@gmail.com-45-Hậu vệ-26/11/2002,Trần Văn Y-0123456789-email46@gmail.com-46-Hậu vệ-23/10/2003,Nguyễn Văn Z-0123456789-email47@gmail.com-47-Hậu vệ-10/07/2003,Đặng Văn L-0123456789-email48@gmail.com-48-Hậu vệ-04/06/2001,Bùi Văn T-0123456789-email49@gmail.com-49-Tiền vệ-15/03/2002,Vũ Văn T-0123456789-email50@gmail.com-50-Tiền vệ-21/06/2001,Nguyễn Văn M-0123456789-email51@gmail.com-51-Tiền vệ-07/02/2003,Lê Văn D-0123456789-email52@gmail.com-52-Tiền vệ-17/06/2002,Phạm Văn T-0123456789-email53@gmail.com-53-Tiền đạo-26/02/2001,Trần Văn H-0123456789-email54@gmail.com-54-Tiền đạo-28/02/2004</v>
+      </c>
+      <c r="C6" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E6" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F6" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="7">
@@ -455,7 +527,19 @@
         <v>team 06</v>
       </c>
       <c r="B7" t="str">
-        <v>Nguyễn Văn L-0123456789-email55@gmail.com-55-Thủ môn-22/07/2001,Lê Văn M-0123456789-email56@gmail.com-56-Hậu vệ-04/03/2003,Phạm Văn N-0123456789-email57@gmail.com-57-Hậu vệ-19/01/2004,Trần Văn O-0123456789-email58@gmail.com-58-Hậu vệ-19/11/2002,Nguyễn Văn P-0123456789-email59@gmail.com-59-Hậu vệ-17/03/2001,Lê Văn Q-0123456789-email60@gmail.com-60-Tiền vệ-06/03/2001,Phạm Văn R-0123456789-email61@gmail.com-61-Tiền vệ-19/06/2001,Trần Văn S-0123456789-email62@gmail.com-62-Tiền vệ-08/02/2001,Nguyễn Văn T-0123456789-email63@gmail.com-63-Tiền vệ-27/09/1999,Lê Văn U-0123456789-email64@gmail.com-64-Tiền đạo-31/07/2001,Nguyễn Văn V-0123456789-email65@gmail.com-65-Tiền đạo-08/04/2000</v>
+        <v>Nguyễn Văn L-0123456789-email55@gmail.com-55-Thủ môn-14/02/2004,Lê Văn M-0123456789-email56@gmail.com-56-Hậu vệ-09/11/2003,Phạm Văn N-0123456789-email57@gmail.com-57-Hậu vệ-08/07/2001,Trần Văn O-0123456789-email58@gmail.com-58-Hậu vệ-02/08/2001,Nguyễn Văn P-0123456789-email59@gmail.com-59-Hậu vệ-04/08/1999,Lê Văn Q-0123456789-email60@gmail.com-60-Tiền vệ-03/02/2004,Phạm Văn R-0123456789-email61@gmail.com-61-Tiền vệ-11/01/2003,Trần Văn S-0123456789-email62@gmail.com-62-Tiền vệ-25/10/2000,Nguyễn Văn T-0123456789-email63@gmail.com-63-Tiền vệ-06/01/2002,Lê Văn U-0123456789-email64@gmail.com-64-Tiền đạo-17/07/2000,Nguyễn Văn V-0123456789-email65@gmail.com-65-Tiền đạo-01/10/2002</v>
+      </c>
+      <c r="C7" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E7" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F7" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="8">
@@ -463,7 +547,19 @@
         <v>team 07</v>
       </c>
       <c r="B8" t="str">
-        <v>Lê Văn W-0123456789-email66@gmail.com-66-Thủ môn-27/04/2003,Phạm Văn X-0123456789-email67@gmail.com-67-Hậu vệ-02/05/1999,Trần Văn Y-0123456789-email68@gmail.com-68-Hậu vệ-30/06/2000,Nguyễn Văn Z-0123456789-email69@gmail.com-69-Hậu vệ-04/12/2001,Đặng Văn L-0123456789-email70@gmail.com-70-Hậu vệ-10/08/1999,Bùi Văn T-0123456789-email71@gmail.com-71-Tiền vệ-21/11/2002,Vũ Văn T-0123456789-email72@gmail.com-72-Tiền vệ-01/08/1999,Nguyễn Văn M-0123456789-email73@gmail.com-73-Tiền vệ-11/05/2001,Lê Văn D-0123456789-email74@gmail.com-74-Tiền vệ-13/03/2001,Phạm Văn T-0123456789-email75@gmail.com-75-Tiền đạo-25/11/1999,Trần Văn H-0123456789-email76@gmail.com-76-Tiền đạo-08/11/2001</v>
+        <v>Lê Văn W-0123456789-email66@gmail.com-66-Thủ môn-27/11/2001,Phạm Văn X-0123456789-email67@gmail.com-67-Hậu vệ-23/06/2003,Trần Văn Y-0123456789-email68@gmail.com-68-Hậu vệ-18/02/2001,Nguyễn Văn Z-0123456789-email69@gmail.com-69-Hậu vệ-30/06/2002,Đặng Văn L-0123456789-email70@gmail.com-70-Hậu vệ-25/09/2003,Bùi Văn T-0123456789-email71@gmail.com-71-Tiền vệ-22/12/1999,Vũ Văn T-0123456789-email72@gmail.com-72-Tiền vệ-29/10/2001,Nguyễn Văn M-0123456789-email73@gmail.com-73-Tiền vệ-22/01/2001,Lê Văn D-0123456789-email74@gmail.com-74-Tiền vệ-18/05/1999,Phạm Văn T-0123456789-email75@gmail.com-75-Tiền đạo-29/05/2000,Trần Văn H-0123456789-email76@gmail.com-76-Tiền đạo-13/04/1999</v>
+      </c>
+      <c r="C8" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E8" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F8" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="9">
@@ -471,7 +567,19 @@
         <v>team 08</v>
       </c>
       <c r="B9" t="str">
-        <v>Nguyễn Văn L-0123456789-email77@gmail.com-77-Thủ môn-18/08/2000,Lê Văn M-0123456789-email78@gmail.com-78-Hậu vệ-20/10/1999,Phạm Văn N-0123456789-email79@gmail.com-79-Hậu vệ-23/01/2000,Trần Văn O-0123456789-email80@gmail.com-80-Hậu vệ-05/01/2001,Nguyễn Văn P-0123456789-email81@gmail.com-81-Hậu vệ-18/08/2002,Lê Văn Q-0123456789-email82@gmail.com-82-Tiền vệ-14/01/2004,Phạm Văn R-0123456789-email83@gmail.com-83-Tiền vệ-17/09/2001,Trần Văn S-0123456789-email84@gmail.com-84-Tiền vệ-10/07/2001,Nguyễn Văn T-0123456789-email85@gmail.com-85-Tiền vệ-09/07/2003,Lê Văn U-0123456789-email86@gmail.com-86-Tiền đạo-27/09/2001,Nguyễn Văn V-0123456789-email87@gmail.com-87-Tiền đạo-20/03/2001</v>
+        <v>Nguyễn Văn L-0123456789-email77@gmail.com-77-Thủ môn-01/01/2004,Lê Văn M-0123456789-email78@gmail.com-78-Hậu vệ-07/01/2003,Phạm Văn N-0123456789-email79@gmail.com-79-Hậu vệ-30/03/2000,Trần Văn O-0123456789-email80@gmail.com-80-Hậu vệ-18/05/2002,Nguyễn Văn P-0123456789-email81@gmail.com-81-Hậu vệ-15/03/2004,Lê Văn Q-0123456789-email82@gmail.com-82-Tiền vệ-13/04/2002,Phạm Văn R-0123456789-email83@gmail.com-83-Tiền vệ-21/02/2003,Trần Văn S-0123456789-email84@gmail.com-84-Tiền vệ-29/08/2003,Nguyễn Văn T-0123456789-email85@gmail.com-85-Tiền vệ-26/03/2004,Lê Văn U-0123456789-email86@gmail.com-86-Tiền đạo-13/12/2003,Nguyễn Văn V-0123456789-email87@gmail.com-87-Tiền đạo-26/04/2003</v>
+      </c>
+      <c r="C9" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E9" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F9" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="10">
@@ -479,7 +587,19 @@
         <v>team 09</v>
       </c>
       <c r="B10" t="str">
-        <v>Lê Văn W-0123456789-email88@gmail.com-88-Thủ môn-23/01/2000,Phạm Văn X-0123456789-email89@gmail.com-89-Hậu vệ-22/12/2002,Trần Văn Y-0123456789-email90@gmail.com-90-Hậu vệ-15/07/2002,Nguyễn Văn Z-0123456789-email91@gmail.com-91-Hậu vệ-16/07/1999,Đặng Văn L-0123456789-email92@gmail.com-92-Hậu vệ-18/01/2004,Bùi Văn T-0123456789-email93@gmail.com-93-Tiền vệ-27/11/2000,Vũ Văn T-0123456789-email94@gmail.com-94-Tiền vệ-11/08/1999,Nguyễn Văn M-0123456789-email95@gmail.com-95-Tiền vệ-09/11/1999,Lê Văn D-0123456789-email96@gmail.com-96-Tiền vệ-23/05/2000,Phạm Văn T-0123456789-email97@gmail.com-97-Tiền đạo-30/01/2000,Trần Văn H-0123456789-email98@gmail.com-98-Tiền đạo-20/03/2000</v>
+        <v>Lê Văn W-0123456789-email88@gmail.com-88-Thủ môn-05/07/2001,Phạm Văn X-0123456789-email89@gmail.com-89-Hậu vệ-22/03/2003,Trần Văn Y-0123456789-email90@gmail.com-90-Hậu vệ-11/09/2001,Nguyễn Văn Z-0123456789-email91@gmail.com-91-Hậu vệ-14/10/2003,Đặng Văn L-0123456789-email92@gmail.com-92-Hậu vệ-20/06/2001,Bùi Văn T-0123456789-email93@gmail.com-93-Tiền vệ-29/05/2001,Vũ Văn T-0123456789-email94@gmail.com-94-Tiền vệ-26/03/2003,Nguyễn Văn M-0123456789-email95@gmail.com-95-Tiền vệ-13/05/2003,Lê Văn D-0123456789-email96@gmail.com-96-Tiền vệ-22/05/2001,Phạm Văn T-0123456789-email97@gmail.com-97-Tiền đạo-18/02/2001,Trần Văn H-0123456789-email98@gmail.com-98-Tiền đạo-09/09/2002</v>
+      </c>
+      <c r="C10" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E10" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F10" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="11">
@@ -487,7 +607,19 @@
         <v>team 10</v>
       </c>
       <c r="B11" t="str">
-        <v>Nguyễn Văn L-0123456789-email99@gmail.com-99-Thủ môn-26/01/2003,Đặng Văn L-0123456789-email100@gmail.com-100-Hậu vệ-28/02/2000,Bùi Văn T-0123456789-email101@gmail.com-101-Hậu vệ-12/02/2000,Vũ Văn T-0123456789-email102@gmail.com-102-Hậu vệ-12/02/2001,Nguyễn Văn M-0123456789-email103@gmail.com-103-Hậu vệ-03/05/2002,Lê Văn D-0123456789-email104@gmail.com-104-Tiền vệ-25/10/1999,Phạm Văn T-0123456789-email105@gmail.com-105-Tiền vệ-07/12/2001,Trần Văn H-0123456789-email106@gmail.com-106-Tiền vệ-15/03/2002,Nguyễn Văn L-0123456789-email107@gmail.com-107-Tiền vệ-02/07/2000,Lê Văn M-0123456789-email108@gmail.com-108-Tiền đạo-23/07/2001,Phan Văn M-0123456789-email109@gmail.com-109-Tiền đạo-06/12/2002</v>
+        <v>Nguyễn Văn L-0123456789-email99@gmail.com-99-Thủ môn-24/04/1999,Đặng Văn L-0123456789-email100@gmail.com-100-Hậu vệ-14/01/2004,Bùi Văn T-0123456789-email101@gmail.com-101-Hậu vệ-03/08/1999,Vũ Văn T-0123456789-email102@gmail.com-102-Hậu vệ-03/05/1999,Nguyễn Văn M-0123456789-email103@gmail.com-103-Hậu vệ-20/11/2003,Lê Văn D-0123456789-email104@gmail.com-104-Tiền vệ-13/06/1999,Phạm Văn T-0123456789-email105@gmail.com-105-Tiền vệ-13/05/1999,Trần Văn H-0123456789-email106@gmail.com-106-Tiền vệ-10/07/2002,Nguyễn Văn L-0123456789-email107@gmail.com-107-Tiền vệ-04/03/2003,Lê Văn M-0123456789-email108@gmail.com-108-Tiền đạo-19/02/2002,Phan Văn M-0123456789-email109@gmail.com-109-Tiền đạo-15/11/2003</v>
+      </c>
+      <c r="C11" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E11" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F11" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="12">
@@ -495,7 +627,19 @@
         <v>team 11</v>
       </c>
       <c r="B12" t="str">
-        <v>Phạm Văn N-0123456789-email110@gmail.com-110-Thủ môn-20/10/2001,Trần Văn O-0123456789-email111@gmail.com-111-Hậu vệ-13/04/2001,Nguyễn Văn P-0123456789-email112@gmail.com-112-Hậu vệ-25/07/2000,Lê Văn Q-0123456789-email113@gmail.com-113-Hậu vệ-23/05/1999,Phạm Văn R-0123456789-email114@gmail.com-114-Hậu vệ-30/04/2000,Trần Văn S-0123456789-email115@gmail.com-115-Tiền vệ-09/01/2003,Nguyễn Văn T-0123456789-email116@gmail.com-116-Tiền vệ-11/08/2003,Lê Văn U-0123456789-email117@gmail.com-117-Tiền vệ-28/02/2000,Nguyễn Văn V-0123456789-email118@gmail.com-118-Tiền vệ-21/09/1999,Lê Văn W-0123456789-email119@gmail.com-119-Tiền đạo-05/11/2003,Phạm Văn X-0123456789-email120@gmail.com-120-Tiền đạo-27/10/2002</v>
+        <v>Phạm Văn N-0123456789-email110@gmail.com-110-Thủ môn-23/02/2001,Trần Văn O-0123456789-email111@gmail.com-111-Hậu vệ-13/11/1999,Nguyễn Văn P-0123456789-email112@gmail.com-112-Hậu vệ-09/12/2002,Lê Văn Q-0123456789-email113@gmail.com-113-Hậu vệ-01/06/2001,Phạm Văn R-0123456789-email114@gmail.com-114-Hậu vệ-29/06/2002,Trần Văn S-0123456789-email115@gmail.com-115-Tiền vệ-08/10/2001,Nguyễn Văn T-0123456789-email116@gmail.com-116-Tiền vệ-15/06/2000,Lê Văn U-0123456789-email117@gmail.com-117-Tiền vệ-11/01/2001,Nguyễn Văn V-0123456789-email118@gmail.com-118-Tiền vệ-26/12/2002,Lê Văn W-0123456789-email119@gmail.com-119-Tiền đạo-05/06/2000,Phạm Văn X-0123456789-email120@gmail.com-120-Tiền đạo-03/03/2001</v>
+      </c>
+      <c r="C12" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E12" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F12" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="13">
@@ -503,7 +647,19 @@
         <v>team 12</v>
       </c>
       <c r="B13" t="str">
-        <v>Trần Văn Y-0123456789-email121@gmail.com-121-Thủ môn-09/12/1999,Nguyễn Văn Z-0123456789-email122@gmail.com-122-Hậu vệ-21/03/2002,Đặng Văn L-0123456789-email123@gmail.com-123-Hậu vệ-06/02/2003,Bùi Văn T-0123456789-email124@gmail.com-124-Hậu vệ-31/07/1999,Vũ Văn T-0123456789-email125@gmail.com-125-Hậu vệ-20/12/2001,Nguyễn Văn M-0123456789-email126@gmail.com-126-Tiền vệ-28/05/2000,Lê Văn D-0123456789-email127@gmail.com-127-Tiền vệ-12/02/2002,Phạm Văn T-0123456789-email128@gmail.com-128-Tiền vệ-10/11/1999,Trần Văn H-0123456789-email129@gmail.com-129-Tiền vệ-20/11/2003,Nguyễn Văn L-0123456789-email130@gmail.com-130-Tiền đạo-14/07/2000,Lê Văn M-0123456789-email131@gmail.com-131-Tiền đạo-17/03/2001</v>
+        <v>Trần Văn Y-0123456789-email121@gmail.com-121-Thủ môn-08/09/2000,Nguyễn Văn Z-0123456789-email122@gmail.com-122-Hậu vệ-21/05/2001,Đặng Văn L-0123456789-email123@gmail.com-123-Hậu vệ-03/03/2001,Bùi Văn T-0123456789-email124@gmail.com-124-Hậu vệ-24/08/2000,Vũ Văn T-0123456789-email125@gmail.com-125-Hậu vệ-29/08/2003,Nguyễn Văn M-0123456789-email126@gmail.com-126-Tiền vệ-22/04/2001,Lê Văn D-0123456789-email127@gmail.com-127-Tiền vệ-23/11/1999,Phạm Văn T-0123456789-email128@gmail.com-128-Tiền vệ-12/03/2000,Trần Văn H-0123456789-email129@gmail.com-129-Tiền vệ-09/11/2000,Nguyễn Văn L-0123456789-email130@gmail.com-130-Tiền đạo-14/12/1999,Lê Văn M-0123456789-email131@gmail.com-131-Tiền đạo-05/04/2004</v>
+      </c>
+      <c r="C13" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E13" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F13" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="14">
@@ -511,7 +667,19 @@
         <v>team 13</v>
       </c>
       <c r="B14" t="str">
-        <v>Phạm Văn N-0123456789-email132@gmail.com-132-Thủ môn-10/02/2004,Trần Văn O-0123456789-email133@gmail.com-133-Hậu vệ-19/07/1999,Nguyễn Văn P-0123456789-email134@gmail.com-134-Hậu vệ-03/08/2001,Lê Văn Q-0123456789-email135@gmail.com-135-Hậu vệ-21/03/2001,Phạm Văn R-0123456789-email136@gmail.com-136-Hậu vệ-26/05/2000,Trần Văn S-0123456789-email137@gmail.com-137-Tiền vệ-11/06/1999,Nguyễn Văn T-0123456789-email138@gmail.com-138-Tiền vệ-11/08/2000,Lê Văn U-0123456789-email139@gmail.com-139-Tiền vệ-13/02/2001,Nguyễn Văn V-0123456789-email140@gmail.com-140-Tiền vệ-09/07/2002,Lê Văn W-0123456789-email141@gmail.com-141-Tiền đạo-05/03/2000,Phạm Văn X-0123456789-email142@gmail.com-142-Tiền đạo-29/03/2003</v>
+        <v>Phạm Văn N-0123456789-email132@gmail.com-132-Thủ môn-23/01/2001,Trần Văn O-0123456789-email133@gmail.com-133-Hậu vệ-17/06/1999,Nguyễn Văn P-0123456789-email134@gmail.com-134-Hậu vệ-12/12/2002,Lê Văn Q-0123456789-email135@gmail.com-135-Hậu vệ-12/07/2000,Phạm Văn R-0123456789-email136@gmail.com-136-Hậu vệ-22/07/2002,Trần Văn S-0123456789-email137@gmail.com-137-Tiền vệ-29/03/2003,Nguyễn Văn T-0123456789-email138@gmail.com-138-Tiền vệ-29/10/2000,Lê Văn U-0123456789-email139@gmail.com-139-Tiền vệ-27/02/2004,Nguyễn Văn V-0123456789-email140@gmail.com-140-Tiền vệ-29/12/2000,Lê Văn W-0123456789-email141@gmail.com-141-Tiền đạo-28/07/2000,Phạm Văn X-0123456789-email142@gmail.com-142-Tiền đạo-28/06/2003</v>
+      </c>
+      <c r="C14" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D14" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E14" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F14" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="15">
@@ -519,7 +687,19 @@
         <v>team 14</v>
       </c>
       <c r="B15" t="str">
-        <v>Trần Văn Y-0123456789-email143@gmail.com-143-Thủ môn-30/08/2001,Nguyễn Văn Z-0123456789-email144@gmail.com-144-Hậu vệ-06/04/2003,Đặng Văn L-0123456789-email145@gmail.com-145-Hậu vệ-05/10/1999,Bùi Văn T-0123456789-email146@gmail.com-146-Hậu vệ-28/10/2000,Vũ Văn T-0123456789-email147@gmail.com-147-Hậu vệ-06/07/2002,Nguyễn Văn M-0123456789-email148@gmail.com-148-Tiền vệ-27/03/2001,Lê Văn D-0123456789-email149@gmail.com-149-Tiền vệ-12/12/2002,Phạm Văn T-0123456789-email150@gmail.com-150-Tiền vệ-18/07/1999,Trần Văn H-0123456789-email151@gmail.com-151-Tiền vệ-30/04/2001,Nguyễn Văn L-0123456789-email152@gmail.com-152-Tiền đạo-01/11/2001,Lê Văn M-0123456789-email153@gmail.com-153-Tiền đạo-08/02/2003</v>
+        <v>Trần Văn Y-0123456789-email143@gmail.com-143-Thủ môn-22/08/2003,Nguyễn Văn Z-0123456789-email144@gmail.com-144-Hậu vệ-21/10/2000,Đặng Văn L-0123456789-email145@gmail.com-145-Hậu vệ-17/05/1999,Bùi Văn T-0123456789-email146@gmail.com-146-Hậu vệ-26/05/1999,Vũ Văn T-0123456789-email147@gmail.com-147-Hậu vệ-06/09/2000,Nguyễn Văn M-0123456789-email148@gmail.com-148-Tiền vệ-29/01/2002,Lê Văn D-0123456789-email149@gmail.com-149-Tiền vệ-21/10/2003,Phạm Văn T-0123456789-email150@gmail.com-150-Tiền vệ-28/03/2001,Trần Văn H-0123456789-email151@gmail.com-151-Tiền vệ-16/04/2003,Nguyễn Văn L-0123456789-email152@gmail.com-152-Tiền đạo-30/08/2001,Lê Văn M-0123456789-email153@gmail.com-153-Tiền đạo-06/06/2001</v>
+      </c>
+      <c r="C15" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D15" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E15" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F15" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +707,19 @@
         <v>team 15</v>
       </c>
       <c r="B16" t="str">
-        <v>Phạm Văn N-0123456789-email154@gmail.com-154-Thủ môn-23/02/2002,Trần Văn O-0123456789-email155@gmail.com-155-Hậu vệ-14/03/2003,Nguyễn Văn P-0123456789-email156@gmail.com-156-Hậu vệ-23/01/2004,Lê Văn Q-0123456789-email157@gmail.com-157-Hậu vệ-16/04/2001,Phạm Văn R-0123456789-email158@gmail.com-158-Hậu vệ-07/05/2003,Trần Văn S-0123456789-email159@gmail.com-159-Tiền vệ-19/04/2000,Nguyễn Văn T-0123456789-email160@gmail.com-160-Tiền vệ-11/07/1999,Lê Văn U-0123456789-email161@gmail.com-161-Tiền vệ-20/05/1999,Nguyễn Văn V-0123456789-email162@gmail.com-162-Tiền vệ-28/11/2000,Lê Văn W-0123456789-email163@gmail.com-163-Tiền đạo-02/02/2004,Phạm Văn X-0123456789-email164@gmail.com-164-Tiền đạo-01/09/2001</v>
+        <v>Phạm Văn N-0123456789-email154@gmail.com-154-Thủ môn-30/01/2004,Trần Văn O-0123456789-email155@gmail.com-155-Hậu vệ-01/08/2001,Nguyễn Văn P-0123456789-email156@gmail.com-156-Hậu vệ-20/11/2000,Lê Văn Q-0123456789-email157@gmail.com-157-Hậu vệ-24/12/2000,Phạm Văn R-0123456789-email158@gmail.com-158-Hậu vệ-09/04/2002,Trần Văn S-0123456789-email159@gmail.com-159-Tiền vệ-02/05/2002,Nguyễn Văn T-0123456789-email160@gmail.com-160-Tiền vệ-16/11/2003,Lê Văn U-0123456789-email161@gmail.com-161-Tiền vệ-18/05/2001,Nguyễn Văn V-0123456789-email162@gmail.com-162-Tiền vệ-13/09/2002,Lê Văn W-0123456789-email163@gmail.com-163-Tiền đạo-31/10/2001,Phạm Văn X-0123456789-email164@gmail.com-164-Tiền đạo-12/09/2002</v>
+      </c>
+      <c r="C16" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E16" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F16" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
     <row r="17">
@@ -535,12 +727,24 @@
         <v>team 16</v>
       </c>
       <c r="B17" t="str">
-        <v>Trần Văn Y-0123456789-email165@gmail.com-165-Thủ môn-16/01/2004,Nguyễn Văn Z-0123456789-email166@gmail.com-166-Hậu vệ-07/03/2001,Đặng Văn L-0123456789-email167@gmail.com-167-Hậu vệ-16/12/1999,Bùi Văn T-0123456789-email168@gmail.com-168-Hậu vệ-12/05/2002,Vũ Văn T-0123456789-email169@gmail.com-169-Hậu vệ-30/05/1999,Nguyễn Văn M-0123456789-email170@gmail.com-170-Tiền vệ-07/05/2003,Lê Văn D-0123456789-email171@gmail.com-171-Tiền vệ-07/05/2000,Phạm Văn T-0123456789-email172@gmail.com-172-Tiền vệ-15/08/1999,Trần Văn H-0123456789-email173@gmail.com-173-Tiền vệ-30/07/2002,Nguyễn Văn L-0123456789-email174@gmail.com-174-Tiền đạo-27/02/2001,Lê Văn M-0123456789-email175@gmail.com-175-Tiền đạo-16/04/2001</v>
+        <v>Trần Văn Y-0123456789-email165@gmail.com-165-Thủ môn-28/07/2002,Nguyễn Văn Z-0123456789-email166@gmail.com-166-Hậu vệ-01/05/2003,Đặng Văn L-0123456789-email167@gmail.com-167-Hậu vệ-15/07/2002,Bùi Văn T-0123456789-email168@gmail.com-168-Hậu vệ-20/03/2003,Vũ Văn T-0123456789-email169@gmail.com-169-Hậu vệ-20/06/2002,Nguyễn Văn M-0123456789-email170@gmail.com-170-Tiền vệ-01/01/2001,Lê Văn D-0123456789-email171@gmail.com-171-Tiền vệ-19/05/2003,Phạm Văn T-0123456789-email172@gmail.com-172-Tiền vệ-22/05/1999,Trần Văn H-0123456789-email173@gmail.com-173-Tiền vệ-02/11/2003,Nguyễn Văn L-0123456789-email174@gmail.com-174-Tiền đạo-23/01/2002,Lê Văn M-0123456789-email175@gmail.com-175-Tiền đạo-05/05/2000</v>
+      </c>
+      <c r="C17" t="str">
+        <v>20-25</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0123456789</v>
+      </c>
+      <c r="E17" t="str">
+        <v>TruongPham@gmail.com</v>
+      </c>
+      <c r="F17" t="str">
+        <v>TruongPham</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
   </ignoredErrors>
 </worksheet>
 </file>